--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="609">
   <si>
     <t>old</t>
   </si>
@@ -1833,6 +1833,24 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1b</t>
+  </si>
+  <si>
+    <t>ref_facility</t>
+  </si>
+  <si>
+    <t>i2_1b</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1o</t>
+  </si>
+  <si>
+    <t>ref_facility_oth</t>
+  </si>
+  <si>
+    <t>i2_1o</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6484,10 +6502,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>128</v>
+        <v>603</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>604</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6502,18 +6520,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>293</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>129</v>
+        <v>606</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>607</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6528,18 +6546,18 @@
         <v>1</v>
       </c>
       <c r="G164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>294</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6557,15 +6575,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>131</v>
+        <v>456</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6576,22 +6594,22 @@
       <c r="E166" s="20">
         <v>1</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="22">
         <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6609,15 +6627,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6628,22 +6646,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="20">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6658,18 +6676,18 @@
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6684,18 +6702,18 @@
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6710,18 +6728,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6736,18 +6754,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6765,15 +6783,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6791,15 +6809,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>587</v>
+        <v>465</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6817,15 +6835,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>589</v>
+        <v>466</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6843,15 +6861,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6869,15 +6887,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6895,15 +6913,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6921,15 +6939,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6947,15 +6965,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6973,15 +6991,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -6999,15 +7017,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7025,15 +7043,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7051,15 +7069,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7077,15 +7095,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7103,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>467</v>
+        <v>597</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7129,15 +7147,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>468</v>
+        <v>598</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7148,22 +7166,22 @@
       <c r="E188" s="20">
         <v>1</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="22">
         <v>1</v>
       </c>
       <c r="G188" s="3">
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7181,15 +7199,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7200,22 +7218,22 @@
       <c r="E190" s="20">
         <v>1</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="20">
         <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7233,15 +7251,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7259,15 +7277,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7285,15 +7303,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7311,15 +7329,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7337,15 +7355,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7363,93 +7381,93 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="20">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="17" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7467,15 +7485,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7493,15 +7511,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7519,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7545,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7571,32 +7589,84 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B207" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="20">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="18" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="20">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -68,9 +68,6 @@
     <t>cg_age_yr</t>
   </si>
   <si>
-    <t>yg_age_ctg</t>
-  </si>
-  <si>
     <t>cg_age_ctg</t>
   </si>
   <si>
@@ -1851,6 +1848,9 @@
   </si>
   <si>
     <t>i2_1o</t>
+  </si>
+  <si>
+    <t>yg_infant_ctg</t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:XFD164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2296,22 +2296,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -2389,15 +2389,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2415,15 +2415,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2441,15 +2441,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2467,15 +2467,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2493,15 +2493,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2519,15 +2519,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2545,15 +2545,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2571,15 +2571,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>339</v>
+        <v>494</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>496</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2594,18 +2594,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>177</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>495</v>
+        <v>338</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2620,18 +2620,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>496</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2649,21 +2649,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>341</v>
+        <v>493</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2</v>
+        <v>492</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2672,24 +2672,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>179</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2701,15 +2701,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>494</v>
+        <v>342</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>493</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>493</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2735,7 +2735,7 @@
         <v>343</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>344</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>182</v>
@@ -2784,16 +2784,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>10</v>
+        <v>608</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2805,15 +2805,15 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -2831,15 +2831,15 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2857,12 +2857,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2909,15 +2909,15 @@
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
@@ -2961,15 +2961,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2987,12 +2987,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>4</v>
@@ -3013,12 +3013,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
@@ -3039,15 +3039,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3065,12 +3065,12 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>5</v>
@@ -3091,42 +3091,42 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>513</v>
-      </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
@@ -3143,15 +3143,15 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3169,15 +3169,15 @@
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3195,15 +3195,15 @@
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3221,15 +3221,15 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3247,15 +3247,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3273,15 +3273,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3299,15 +3299,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3325,15 +3325,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3351,15 +3351,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3377,12 +3377,12 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>3</v>
@@ -3403,15 +3403,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3429,15 +3429,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3455,15 +3455,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3481,15 +3481,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3507,15 +3507,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3533,15 +3533,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3559,15 +3559,15 @@
         <v>1</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3585,15 +3585,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3611,15 +3611,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3637,15 +3637,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3663,41 +3663,41 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3715,15 +3715,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3741,15 +3741,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3767,15 +3767,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>505</v>
-      </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -3819,16 +3819,16 @@
         <v>1</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
@@ -3845,15 +3845,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -3871,16 +3871,16 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>601</v>
-      </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
@@ -3897,15 +3897,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3923,15 +3923,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="20">
         <v>0</v>
@@ -3949,15 +3949,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3975,15 +3975,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -4001,15 +4001,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4027,15 +4027,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4053,15 +4053,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4079,15 +4079,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4105,15 +4105,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4131,15 +4131,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4157,15 +4157,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4183,15 +4183,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4209,15 +4209,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4235,15 +4235,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4261,15 +4261,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4287,15 +4287,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4313,15 +4313,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4339,15 +4339,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4365,15 +4365,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4391,15 +4391,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4417,15 +4417,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="20">
         <v>0</v>
@@ -4443,15 +4443,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="20">
         <v>0</v>
@@ -4469,15 +4469,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4495,15 +4495,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4521,15 +4521,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4547,15 +4547,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4573,15 +4573,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4599,15 +4599,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4625,15 +4625,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4651,15 +4651,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4677,15 +4677,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4703,15 +4703,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4729,15 +4729,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4755,15 +4755,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4781,15 +4781,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4807,15 +4807,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4833,15 +4833,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4859,15 +4859,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4885,15 +4885,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4911,15 +4911,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4937,15 +4937,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4963,15 +4963,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4989,15 +4989,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5015,15 +5015,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5041,15 +5041,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5067,15 +5067,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5093,15 +5093,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5119,15 +5119,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5145,15 +5145,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5171,15 +5171,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5197,15 +5197,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5223,15 +5223,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5249,15 +5249,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5275,15 +5275,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5301,15 +5301,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5327,15 +5327,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5353,15 +5353,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5379,15 +5379,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5405,15 +5405,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5431,15 +5431,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5457,15 +5457,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5483,15 +5483,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5509,15 +5509,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5535,15 +5535,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5561,15 +5561,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5587,15 +5587,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5613,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5639,15 +5639,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5665,15 +5665,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5691,15 +5691,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5717,15 +5717,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5743,15 +5743,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5769,15 +5769,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5795,15 +5795,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5821,15 +5821,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5847,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5873,15 +5873,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5899,15 +5899,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5925,15 +5925,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5951,15 +5951,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5977,15 +5977,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6003,15 +6003,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6029,15 +6029,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6055,15 +6055,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6081,15 +6081,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6107,15 +6107,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6133,15 +6133,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6159,15 +6159,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6185,15 +6185,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6211,15 +6211,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6237,15 +6237,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6263,15 +6263,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6289,15 +6289,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6315,15 +6315,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6341,15 +6341,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6367,15 +6367,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6393,15 +6393,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6419,15 +6419,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6445,15 +6445,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6471,15 +6471,15 @@
         <v>1</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6497,67 +6497,67 @@
         <v>1</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B163" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="20">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="20">
-        <v>1</v>
-      </c>
-      <c r="F163" s="22">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>1</v>
-      </c>
-      <c r="H163" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="20">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="17" t="s">
         <v>607</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="20">
-        <v>1</v>
-      </c>
-      <c r="F164" s="22">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3">
-        <v>1</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6575,15 +6575,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6601,15 +6601,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6627,15 +6627,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6653,15 +6653,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6679,15 +6679,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6705,15 +6705,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6731,15 +6731,15 @@
         <v>1</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6757,15 +6757,15 @@
         <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6783,15 +6783,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6809,15 +6809,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6835,15 +6835,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6861,15 +6861,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6887,15 +6887,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6913,15 +6913,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6939,15 +6939,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6965,15 +6965,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6991,15 +6991,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7017,15 +7017,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7043,15 +7043,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7069,15 +7069,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7095,15 +7095,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7121,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7147,15 +7147,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7173,15 +7173,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7199,15 +7199,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7225,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7251,15 +7251,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7277,15 +7277,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7303,15 +7303,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7329,15 +7329,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7355,15 +7355,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7381,15 +7381,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7407,15 +7407,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7433,15 +7433,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7459,15 +7459,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7485,15 +7485,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7511,15 +7511,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7537,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7563,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7589,15 +7589,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7615,15 +7615,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7641,15 +7641,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="612">
   <si>
     <t>old</t>
   </si>
@@ -1851,6 +1851,15 @@
   </si>
   <si>
     <t>yg_infant_ctg</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_10a</t>
+  </si>
+  <si>
+    <t>phone_nb_avail</t>
+  </si>
+  <si>
+    <t>a4_a_10a</t>
   </si>
 </sst>
 </file>
@@ -2271,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3563,11 +3572,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>38</v>
+      <c r="A50" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3576,24 +3585,24 @@
         <v>1</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>209</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3611,15 +3620,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>491</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3637,15 +3646,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>489</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3663,15 +3672,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3689,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3715,15 +3724,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>211</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3741,15 +3750,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3767,119 +3776,119 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -3901,45 +3910,45 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>51</v>
+      <c r="A63" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>217</v>
+      <c r="H63" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="20">
-        <v>0</v>
-      </c>
-      <c r="D64" s="20">
-        <v>0</v>
-      </c>
-      <c r="E64" s="21">
+        <v>51</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="3">
@@ -3949,15 +3958,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="20">
         <v>0</v>
@@ -3965,7 +3974,7 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="21">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3975,15 +3984,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -3991,7 +4000,7 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -4001,15 +4010,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4027,23 +4036,23 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
+        <v>55</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="21">
         <v>1</v>
       </c>
       <c r="F68" s="3">
@@ -4053,15 +4062,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4079,15 +4088,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4105,15 +4114,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4131,15 +4140,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4157,15 +4166,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4183,15 +4192,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4209,15 +4218,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4235,15 +4244,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4261,15 +4270,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4287,15 +4296,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4313,15 +4322,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4339,15 +4348,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4365,15 +4374,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4391,15 +4400,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4417,23 +4426,23 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="20">
+        <v>70</v>
+      </c>
+      <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83" s="3">
@@ -4443,15 +4452,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="20">
         <v>0</v>
@@ -4459,7 +4468,7 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="21">
         <v>1</v>
       </c>
       <c r="F84" s="3">
@@ -4469,15 +4478,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4485,7 +4494,7 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="20">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4495,15 +4504,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4521,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4537,7 +4546,7 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="21">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4547,15 +4556,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4563,7 +4572,7 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="20">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4573,15 +4582,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4599,17 +4608,17 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="2">
+        <v>77</v>
+      </c>
+      <c r="C90" s="20">
         <v>0</v>
       </c>
       <c r="D90" s="2">
@@ -4625,67 +4634,67 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B92" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4700,18 +4709,18 @@
         <v>1</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4729,15 +4738,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4755,15 +4764,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4781,15 +4790,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4807,15 +4816,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4833,15 +4842,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4859,15 +4868,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4885,15 +4894,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4911,15 +4920,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4937,15 +4946,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4963,15 +4972,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4989,15 +4998,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5015,15 +5024,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5041,15 +5050,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5067,15 +5076,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5093,15 +5102,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5116,18 +5125,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>98</v>
+        <v>425</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5145,15 +5154,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5171,15 +5180,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5197,15 +5206,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5223,15 +5232,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5249,15 +5258,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5275,15 +5284,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5301,15 +5310,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5317,25 +5326,25 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="20">
-        <v>1</v>
-      </c>
-      <c r="F117" s="22">
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
         <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5353,15 +5362,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5379,15 +5388,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5398,22 +5407,22 @@
       <c r="E120" s="20">
         <v>1</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="22">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5424,22 +5433,22 @@
       <c r="E121" s="20">
         <v>1</v>
       </c>
-      <c r="F121" s="22">
+      <c r="F121" s="20">
         <v>1</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5457,15 +5466,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5483,15 +5492,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5502,22 +5511,22 @@
       <c r="E124" s="20">
         <v>1</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="22">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>113</v>
+        <v>440</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5528,22 +5537,22 @@
       <c r="E125" s="20">
         <v>1</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="20">
         <v>1</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5558,18 +5567,18 @@
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5587,15 +5596,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5613,15 +5622,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5639,15 +5648,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5658,22 +5667,22 @@
       <c r="E130" s="20">
         <v>1</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="22">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5684,22 +5693,22 @@
       <c r="E131" s="20">
         <v>1</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="20">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5717,67 +5726,67 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="20">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B134" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="22">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="17" t="s">
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="20">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5795,15 +5804,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5821,15 +5830,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5847,15 +5856,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5873,67 +5882,67 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="20">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B140" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="20">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="18" t="s">
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="20">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="18" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="22">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>532</v>
+        <v>450</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5941,7 +5950,7 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="20">
         <v>1</v>
       </c>
       <c r="F141" s="22">
@@ -5951,15 +5960,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>514</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5977,15 +5986,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6003,15 +6012,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6029,15 +6038,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6055,15 +6064,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6081,15 +6090,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6107,15 +6116,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6133,15 +6142,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6159,15 +6168,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6185,15 +6194,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6211,15 +6220,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6237,15 +6246,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6263,15 +6272,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6289,15 +6298,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6315,15 +6324,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6341,15 +6350,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6367,15 +6376,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6393,15 +6402,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>123</v>
+        <v>573</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6409,7 +6418,7 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="20">
+      <c r="E159" s="4">
         <v>1</v>
       </c>
       <c r="F159" s="22">
@@ -6419,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>288</v>
+        <v>531</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6445,15 +6454,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6468,18 +6477,18 @@
         <v>1</v>
       </c>
       <c r="G161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6497,15 +6506,15 @@
         <v>1</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>602</v>
+        <v>453</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6523,15 +6532,15 @@
         <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>604</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6549,15 +6558,15 @@
         <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>127</v>
+        <v>605</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>606</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6572,18 +6581,18 @@
         <v>1</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>292</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6601,15 +6610,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>129</v>
+        <v>455</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6627,15 +6636,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6646,22 +6655,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="22">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6672,22 +6681,22 @@
       <c r="E169" s="20">
         <v>1</v>
       </c>
-      <c r="F169" s="22">
+      <c r="F169" s="20">
         <v>1</v>
       </c>
       <c r="G169" s="3">
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6705,15 +6714,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6728,18 +6737,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6757,15 +6766,15 @@
         <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6780,18 +6789,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6809,15 +6818,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6835,15 +6844,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6861,15 +6870,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6887,15 +6896,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6913,15 +6922,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6939,15 +6948,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6965,15 +6974,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6991,15 +7000,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7017,15 +7026,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7043,15 +7052,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7069,15 +7078,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7095,15 +7104,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7121,15 +7130,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7147,15 +7156,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7173,15 +7182,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>466</v>
+        <v>597</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7199,15 +7208,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7218,22 +7227,22 @@
       <c r="E190" s="20">
         <v>1</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="22">
         <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7244,22 +7253,22 @@
       <c r="E191" s="20">
         <v>1</v>
       </c>
-      <c r="F191" s="22">
+      <c r="F191" s="20">
         <v>1</v>
       </c>
       <c r="G191" s="3">
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7277,15 +7286,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7303,15 +7312,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7329,15 +7338,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7355,15 +7364,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7381,15 +7390,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7407,15 +7416,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7433,67 +7442,67 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="17" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7511,15 +7520,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7537,15 +7546,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7563,15 +7572,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7589,15 +7598,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7615,15 +7624,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7641,32 +7650,58 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B208" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="20">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="18" t="s">
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="20">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="615">
   <si>
     <t>old</t>
   </si>
@@ -1784,42 +1784,6 @@
     <t>rx_salbutamol_route</t>
   </si>
   <si>
-    <t>crfs-t07a-tt06a-d2_6</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_1</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_6b</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_4</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_5</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_5a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_2</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_2b</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_3</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt06a-d2_3b</t>
-  </si>
-  <si>
     <t>crfs-t02b-location_name</t>
   </si>
   <si>
@@ -1860,6 +1824,51 @@
   </si>
   <si>
     <t>a4_a_10a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_6</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_1</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_4</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_5</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_5a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_2</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_2b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_3</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_3b</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-exit_yn</t>
+  </si>
+  <si>
+    <t>lost_at_consultation_exit</t>
+  </si>
+  <si>
+    <t>exit_yn</t>
   </si>
 </sst>
 </file>
@@ -2280,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2429,10 +2438,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2450,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,7 +2805,7 @@
         <v>341</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3573,10 +3582,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3594,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,7 +3894,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>502</v>
@@ -3911,10 +3920,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -5549,10 +5558,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>113</v>
+        <v>612</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>613</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5563,22 +5572,22 @@
       <c r="E126" s="20">
         <v>1</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="20">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>279</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5593,18 +5602,18 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5622,15 +5631,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5648,15 +5657,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5674,15 +5683,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5693,22 +5702,22 @@
       <c r="E131" s="20">
         <v>1</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="22">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5719,22 +5728,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5752,67 +5761,67 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B135" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="22">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="17" t="s">
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="20">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5830,15 +5839,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5856,15 +5865,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5882,15 +5891,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5908,67 +5917,67 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="20">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B141" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="20">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="18" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="22">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>532</v>
+        <v>450</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5976,7 +5985,7 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="20">
         <v>1</v>
       </c>
       <c r="F142" s="22">
@@ -5986,15 +5995,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>514</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6012,15 +6021,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6038,15 +6047,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6064,15 +6073,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6090,15 +6099,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6116,15 +6125,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6142,15 +6151,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6168,15 +6177,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6194,15 +6203,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6220,15 +6229,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6246,15 +6255,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6272,15 +6281,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6298,15 +6307,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6324,15 +6333,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6350,15 +6359,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6376,15 +6385,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6402,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6428,15 +6437,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>123</v>
+        <v>573</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6444,7 +6453,7 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="4">
         <v>1</v>
       </c>
       <c r="F160" s="22">
@@ -6454,15 +6463,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>288</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6480,15 +6489,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6503,18 +6512,18 @@
         <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6532,15 +6541,15 @@
         <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>602</v>
+        <v>453</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6558,15 +6567,15 @@
         <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>604</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6584,15 +6593,15 @@
         <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>127</v>
+        <v>593</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6607,18 +6616,18 @@
         <v>1</v>
       </c>
       <c r="G166" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6636,15 +6645,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>129</v>
+        <v>455</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6662,15 +6671,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6681,22 +6690,22 @@
       <c r="E169" s="20">
         <v>1</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="22">
         <v>1</v>
       </c>
       <c r="G169" s="3">
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6707,22 +6716,22 @@
       <c r="E170" s="20">
         <v>1</v>
       </c>
-      <c r="F170" s="22">
+      <c r="F170" s="20">
         <v>1</v>
       </c>
       <c r="G170" s="3">
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6740,15 +6749,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6763,18 +6772,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6792,15 +6801,15 @@
         <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6815,18 +6824,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6844,15 +6853,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6870,15 +6879,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6896,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6922,15 +6931,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6948,15 +6957,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6974,15 +6983,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7000,15 +7009,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7026,15 +7035,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7052,15 +7061,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7078,15 +7087,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7104,15 +7113,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7130,15 +7139,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7156,15 +7165,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7182,15 +7191,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7208,15 +7217,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>466</v>
+        <v>611</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7234,15 +7243,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7253,22 +7262,22 @@
       <c r="E191" s="20">
         <v>1</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="22">
         <v>1</v>
       </c>
       <c r="G191" s="3">
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7279,22 +7288,22 @@
       <c r="E192" s="20">
         <v>1</v>
       </c>
-      <c r="F192" s="22">
+      <c r="F192" s="20">
         <v>1</v>
       </c>
       <c r="G192" s="3">
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7312,15 +7321,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7338,15 +7347,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7364,15 +7373,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7390,15 +7399,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7416,15 +7425,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7442,15 +7451,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7468,67 +7477,67 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B201" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="17" t="s">
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="17" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7546,15 +7555,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7572,15 +7581,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7598,15 +7607,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7624,15 +7633,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7650,15 +7659,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7676,32 +7685,58 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B209" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="20">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="18" t="s">
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="20">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="616">
   <si>
     <t>old</t>
   </si>
@@ -1869,6 +1869,9 @@
   </si>
   <si>
     <t>exit_yn</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -2289,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2463,95 +2466,95 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>486</v>
+        <v>335</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>486</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>486</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2563,67 +2566,67 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>175</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>338</v>
+        <v>494</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>496</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2638,18 +2641,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>176</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2664,18 +2667,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>493</v>
+        <v>339</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2693,21 +2696,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>492</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>340</v>
+        <v>493</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2</v>
+        <v>492</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2716,24 +2719,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>178</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2742,18 +2745,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2771,15 +2774,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2794,24 +2797,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2823,41 +2826,41 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22">
+        <v>596</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2865,83 +2868,83 @@
       <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
         <v>1</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20">
         <v>1</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2950,24 +2953,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2976,70 +2979,70 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3054,18 +3057,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3083,15 +3086,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3109,15 +3112,15 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3132,122 +3135,122 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>509</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3265,15 +3268,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3291,15 +3294,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3314,18 +3317,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3343,15 +3346,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3369,24 +3372,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -3395,249 +3398,249 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3655,15 +3658,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>491</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3681,15 +3684,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>489</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3707,15 +3710,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3733,15 +3736,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3759,15 +3762,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>211</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3785,15 +3788,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3811,119 +3814,119 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>588</v>
+        <v>502</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3945,45 +3948,45 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>51</v>
+      <c r="A64" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>217</v>
+      <c r="H64" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="20">
-        <v>0</v>
-      </c>
-      <c r="D65" s="20">
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3993,15 +3996,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="20">
         <v>0</v>
@@ -4009,7 +4012,7 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="21">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -4019,15 +4022,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4035,7 +4038,7 @@
       <c r="D67" s="20">
         <v>0</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -4045,15 +4048,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="20">
         <v>0</v>
@@ -4071,23 +4074,23 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
+        <v>55</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
         <v>1</v>
       </c>
       <c r="F69" s="3">
@@ -4097,15 +4100,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4123,15 +4126,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4149,15 +4152,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4175,15 +4178,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4201,15 +4204,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4227,15 +4230,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4253,15 +4256,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4279,15 +4282,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4305,15 +4308,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4331,15 +4334,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4357,15 +4360,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4383,15 +4386,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4409,15 +4412,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4435,15 +4438,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4461,23 +4464,23 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="20">
+        <v>70</v>
+      </c>
+      <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="4">
         <v>1</v>
       </c>
       <c r="F84" s="3">
@@ -4487,15 +4490,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4503,7 +4506,7 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="21">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4513,15 +4516,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4529,7 +4532,7 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="20">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4539,15 +4542,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4565,15 +4568,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4581,7 +4584,7 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="21">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4591,15 +4594,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4607,7 +4610,7 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="20">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4617,15 +4620,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="20">
         <v>0</v>
@@ -4643,17 +4646,17 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="2">
+        <v>77</v>
+      </c>
+      <c r="C91" s="20">
         <v>0</v>
       </c>
       <c r="D91" s="2">
@@ -4669,67 +4672,67 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="13" t="s">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4744,18 +4747,18 @@
         <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4773,15 +4776,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4799,15 +4802,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4825,15 +4828,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4851,15 +4854,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4877,15 +4880,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4903,15 +4906,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4929,15 +4932,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4955,15 +4958,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4981,15 +4984,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5007,15 +5010,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5033,15 +5036,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5059,15 +5062,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5085,15 +5088,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5111,15 +5114,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5137,15 +5140,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5160,18 +5163,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>98</v>
+        <v>425</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5189,15 +5192,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5215,15 +5218,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5241,15 +5244,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5267,15 +5270,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5293,15 +5296,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5319,15 +5322,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5345,15 +5348,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5361,25 +5364,25 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="20">
-        <v>1</v>
-      </c>
-      <c r="F118" s="22">
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5397,15 +5400,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5423,15 +5426,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5442,22 +5445,22 @@
       <c r="E121" s="20">
         <v>1</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="22">
         <v>1</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5468,22 +5471,22 @@
       <c r="E122" s="20">
         <v>1</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="20">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5501,15 +5504,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5527,15 +5530,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5546,22 +5549,22 @@
       <c r="E125" s="20">
         <v>1</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="22">
         <v>1</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>612</v>
+        <v>440</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>613</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5579,15 +5582,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>614</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>113</v>
+        <v>612</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>613</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5598,22 +5601,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="20">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>279</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5628,18 +5631,18 @@
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5657,15 +5660,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5683,15 +5686,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5709,15 +5712,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5728,22 +5731,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="22">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5754,22 +5757,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="20">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5787,67 +5790,67 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B136" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="22">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="17" t="s">
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="20">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="20">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5865,15 +5868,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5891,15 +5894,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5917,15 +5920,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5943,67 +5946,67 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B142" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="20">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="18" t="s">
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="20">
+        <v>1</v>
+      </c>
+      <c r="F142" s="20">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="18" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1</v>
-      </c>
-      <c r="F142" s="22">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>532</v>
+        <v>450</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6011,7 +6014,7 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="20">
         <v>1</v>
       </c>
       <c r="F143" s="22">
@@ -6021,15 +6024,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>514</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6047,15 +6050,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6073,15 +6076,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6099,15 +6102,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6125,15 +6128,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6151,15 +6154,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6177,15 +6180,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6203,15 +6206,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6229,15 +6232,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6255,15 +6258,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6281,15 +6284,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6307,15 +6310,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6333,15 +6336,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6359,15 +6362,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6385,15 +6388,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6411,15 +6414,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6437,15 +6440,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6463,15 +6466,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>123</v>
+        <v>573</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6479,7 +6482,7 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="20">
+      <c r="E161" s="4">
         <v>1</v>
       </c>
       <c r="F161" s="22">
@@ -6489,15 +6492,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>288</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6515,15 +6518,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6538,18 +6541,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6567,15 +6570,15 @@
         <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>590</v>
+        <v>453</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>591</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6593,15 +6596,15 @@
         <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>592</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6619,15 +6622,15 @@
         <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>127</v>
+        <v>593</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6642,18 +6645,18 @@
         <v>1</v>
       </c>
       <c r="G167" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6671,15 +6674,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>129</v>
+        <v>455</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6697,15 +6700,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6716,22 +6719,22 @@
       <c r="E170" s="20">
         <v>1</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="22">
         <v>1</v>
       </c>
       <c r="G170" s="3">
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6742,22 +6745,22 @@
       <c r="E171" s="20">
         <v>1</v>
       </c>
-      <c r="F171" s="22">
+      <c r="F171" s="20">
         <v>1</v>
       </c>
       <c r="G171" s="3">
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6775,15 +6778,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6798,18 +6801,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6827,15 +6830,15 @@
         <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6850,18 +6853,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6879,15 +6882,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6905,15 +6908,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6931,15 +6934,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>600</v>
+        <v>465</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6957,15 +6960,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6983,15 +6986,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7009,15 +7012,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7035,15 +7038,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7061,15 +7064,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7087,15 +7090,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7113,15 +7116,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7139,15 +7142,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7165,15 +7168,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7191,15 +7194,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7217,15 +7220,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7243,15 +7246,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>466</v>
+        <v>611</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7269,15 +7272,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7288,22 +7291,22 @@
       <c r="E192" s="20">
         <v>1</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="22">
         <v>1</v>
       </c>
       <c r="G192" s="3">
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7314,22 +7317,22 @@
       <c r="E193" s="20">
         <v>1</v>
       </c>
-      <c r="F193" s="22">
+      <c r="F193" s="20">
         <v>1</v>
       </c>
       <c r="G193" s="3">
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7347,15 +7350,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7373,15 +7376,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7399,15 +7402,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7425,15 +7428,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7451,15 +7454,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7477,15 +7480,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7503,67 +7506,67 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="17" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="17" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7581,15 +7584,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7607,15 +7610,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7633,15 +7636,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7659,15 +7662,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7685,15 +7688,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7711,32 +7714,58 @@
         <v>0</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B210" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="20">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="18" t="s">
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="20">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="627">
   <si>
     <t>old</t>
   </si>
@@ -1890,6 +1890,21 @@
   </si>
   <si>
     <t>altitude</t>
+  </si>
+  <si>
+    <t>start_geopoint-Accuracy</t>
+  </si>
+  <si>
+    <t>gps_accuracy</t>
+  </si>
+  <si>
+    <t>a3-screening_start</t>
+  </si>
+  <si>
+    <t>screening_start</t>
+  </si>
+  <si>
+    <t>t_screening_start</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2591,193 +2606,193 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>339</v>
+        <v>494</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>28</v>
+        <v>496</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2795,15 +2810,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>177</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>492</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2818,24 +2833,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>492</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2844,18 +2859,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2873,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2896,18 +2911,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2922,24 +2937,24 @@
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>596</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2948,76 +2963,76 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1</v>
-      </c>
-      <c r="G25" s="22">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22">
+        <v>596</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
       </c>
       <c r="D27" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="21">
         <v>1</v>
@@ -3029,67 +3044,67 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3107,93 +3122,93 @@
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3208,18 +3223,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3237,15 +3252,15 @@
         <v>0</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3260,96 +3275,96 @@
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3367,15 +3382,15 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>47</v>
+      <c r="A41" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3392,16 +3407,16 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>197</v>
+      <c r="H41" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3419,15 +3434,15 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3442,18 +3457,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3468,18 +3483,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3497,24 +3512,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -3523,15 +3538,15 @@
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3549,24 +3564,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>29</v>
+      <c r="A48" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -3574,224 +3589,224 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>204</v>
+      <c r="H48" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9" t="s">
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="11" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="11" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3809,15 +3824,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>489</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>497</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3835,15 +3850,15 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>490</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3861,15 +3876,15 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3887,15 +3902,15 @@
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>211</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>375</v>
+        <v>498</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3913,15 +3928,15 @@
         <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3939,205 +3954,205 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B66" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11" t="s">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B67" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="11" t="s">
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B69" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="20">
-        <v>0</v>
-      </c>
-      <c r="D69" s="20">
-        <v>0</v>
-      </c>
-      <c r="E69" s="21">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="20">
-        <v>0</v>
-      </c>
-      <c r="D70" s="20">
-        <v>0</v>
-      </c>
-      <c r="E70" s="20">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
         <v>1</v>
       </c>
       <c r="F70" s="3">
@@ -4147,15 +4162,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="20">
         <v>0</v>
@@ -4173,15 +4188,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="20">
         <v>0</v>
@@ -4189,7 +4204,7 @@
       <c r="D72" s="20">
         <v>0</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>1</v>
       </c>
       <c r="F72" s="3">
@@ -4199,23 +4214,23 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
+        <v>54</v>
+      </c>
+      <c r="C73" s="20">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0</v>
+      </c>
+      <c r="E73" s="21">
         <v>1</v>
       </c>
       <c r="F73" s="3">
@@ -4225,23 +4240,23 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
+        <v>55</v>
+      </c>
+      <c r="C74" s="20">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
         <v>1</v>
       </c>
       <c r="F74" s="3">
@@ -4251,15 +4266,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4277,15 +4292,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4303,15 +4318,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4329,15 +4344,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4355,15 +4370,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4381,15 +4396,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4407,15 +4422,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4433,15 +4448,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4459,15 +4474,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4485,15 +4500,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4511,15 +4526,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4537,15 +4552,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4563,15 +4578,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4589,23 +4604,23 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="20">
+        <v>69</v>
+      </c>
+      <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4615,23 +4630,23 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="20">
+        <v>70</v>
+      </c>
+      <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="4">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4641,15 +4656,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C90" s="20">
         <v>0</v>
@@ -4667,15 +4682,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="20">
         <v>0</v>
@@ -4683,7 +4698,7 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="20">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -4693,15 +4708,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" s="20">
         <v>0</v>
@@ -4709,7 +4724,7 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="21">
         <v>1</v>
       </c>
       <c r="F92" s="3">
@@ -4719,15 +4734,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="20">
         <v>0</v>
@@ -4735,7 +4750,7 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="21">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4745,15 +4760,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="20">
         <v>0</v>
@@ -4761,7 +4776,7 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="20">
         <v>1</v>
       </c>
       <c r="F94" s="3">
@@ -4771,17 +4786,17 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="2">
+        <v>76</v>
+      </c>
+      <c r="C95" s="20">
         <v>0</v>
       </c>
       <c r="D95" s="2">
@@ -4797,93 +4812,93 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="20">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B98" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="13" t="s">
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4898,18 +4913,18 @@
         <v>1</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4927,15 +4942,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4953,15 +4968,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4979,15 +4994,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5005,15 +5020,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5031,15 +5046,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5057,15 +5072,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5083,15 +5098,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5109,15 +5124,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5135,15 +5150,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5161,15 +5176,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5187,15 +5202,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5213,15 +5228,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5239,15 +5254,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5265,15 +5280,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5288,18 +5303,18 @@
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>98</v>
+        <v>424</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5314,18 +5329,18 @@
         <v>1</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5343,15 +5358,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5369,15 +5384,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5395,15 +5410,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5421,15 +5436,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5447,15 +5462,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5473,15 +5488,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5489,25 +5504,25 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="20">
-        <v>1</v>
-      </c>
-      <c r="F122" s="22">
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5515,25 +5530,25 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="20">
-        <v>1</v>
-      </c>
-      <c r="F123" s="22">
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5551,15 +5566,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5570,22 +5585,22 @@
       <c r="E125" s="20">
         <v>1</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="22">
         <v>1</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5603,15 +5618,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5622,22 +5637,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="20">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5655,15 +5670,15 @@
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5674,22 +5689,22 @@
       <c r="E129" s="20">
         <v>1</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="22">
         <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>613</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5700,22 +5715,22 @@
       <c r="E130" s="20">
         <v>1</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="22">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>614</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>113</v>
+        <v>440</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5726,22 +5741,22 @@
       <c r="E131" s="20">
         <v>1</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="20">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>114</v>
+        <v>612</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>613</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5752,22 +5767,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>114</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5782,18 +5797,18 @@
         <v>1</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5811,15 +5826,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5837,15 +5852,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5856,22 +5871,22 @@
       <c r="E136" s="20">
         <v>1</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5889,15 +5904,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5908,100 +5923,100 @@
       <c r="E138" s="20">
         <v>1</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="20">
         <v>1</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="22">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="22">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B141" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="22">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="17" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="22">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="20">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="20">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6019,15 +6034,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6045,15 +6060,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6071,93 +6086,93 @@
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="20">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="20">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B147" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1</v>
-      </c>
-      <c r="F145" s="20">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="18" t="s">
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="18" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
-        <v>1</v>
-      </c>
-      <c r="F146" s="22">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="4">
-        <v>1</v>
-      </c>
-      <c r="F147" s="22">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>533</v>
+        <v>450</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6165,7 +6180,7 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="20">
         <v>1</v>
       </c>
       <c r="F148" s="22">
@@ -6175,15 +6190,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>515</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6201,15 +6216,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6227,15 +6242,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6253,15 +6268,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6279,15 +6294,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6305,15 +6320,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6331,15 +6346,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6357,15 +6372,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6383,15 +6398,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6409,15 +6424,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6435,15 +6450,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6461,15 +6476,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6487,15 +6502,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6513,15 +6528,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6539,15 +6554,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6565,15 +6580,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6591,15 +6606,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>123</v>
+        <v>572</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6607,7 +6622,7 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-      <c r="E165" s="20">
+      <c r="E165" s="4">
         <v>1</v>
       </c>
       <c r="F165" s="22">
@@ -6617,15 +6632,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>288</v>
+        <v>530</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>124</v>
+        <v>573</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6633,7 +6648,7 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="20">
+      <c r="E166" s="4">
         <v>1</v>
       </c>
       <c r="F166" s="22">
@@ -6643,15 +6658,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>289</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6666,18 +6681,18 @@
         <v>1</v>
       </c>
       <c r="G167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6692,18 +6707,18 @@
         <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>591</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6721,15 +6736,15 @@
         <v>1</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>592</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>593</v>
+        <v>453</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>594</v>
+        <v>126</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6747,15 +6762,15 @@
         <v>1</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>595</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>127</v>
+        <v>590</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>591</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6770,18 +6785,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>292</v>
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>128</v>
+        <v>593</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6796,18 +6811,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>293</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>129</v>
+        <v>454</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6825,15 +6840,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6844,22 +6859,22 @@
       <c r="E174" s="20">
         <v>1</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="22">
         <v>1</v>
       </c>
       <c r="G174" s="3">
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6877,15 +6892,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6896,22 +6911,22 @@
       <c r="E176" s="20">
         <v>1</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="20">
         <v>1</v>
       </c>
       <c r="G176" s="3">
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6926,18 +6941,18 @@
         <v>1</v>
       </c>
       <c r="G177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6952,18 +6967,18 @@
         <v>1</v>
       </c>
       <c r="G178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6978,18 +6993,18 @@
         <v>1</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7004,18 +7019,18 @@
         <v>1</v>
       </c>
       <c r="G180" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7033,15 +7048,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7059,15 +7074,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7085,15 +7100,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7111,15 +7126,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7137,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7163,15 +7178,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7189,15 +7204,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7215,15 +7230,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7241,15 +7256,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7267,15 +7282,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7293,15 +7308,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7319,15 +7334,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7345,15 +7360,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7371,15 +7386,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7397,15 +7412,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7416,22 +7431,22 @@
       <c r="E196" s="20">
         <v>1</v>
       </c>
-      <c r="F196" s="20">
+      <c r="F196" s="22">
         <v>1</v>
       </c>
       <c r="G196" s="3">
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7449,15 +7464,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7468,22 +7483,22 @@
       <c r="E198" s="20">
         <v>1</v>
       </c>
-      <c r="F198" s="22">
+      <c r="F198" s="20">
         <v>1</v>
       </c>
       <c r="G198" s="3">
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7501,15 +7516,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7527,15 +7542,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7553,15 +7568,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7579,15 +7594,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7605,15 +7620,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7631,93 +7646,93 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B207" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="22">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="17" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="17" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="20">
-        <v>1</v>
-      </c>
-      <c r="F206" s="22">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7735,15 +7750,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7761,15 +7776,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7787,15 +7802,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7813,15 +7828,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7839,32 +7854,84 @@
         <v>0</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="20">
+        <v>1</v>
+      </c>
+      <c r="F213" s="22">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="20">
+        <v>1</v>
+      </c>
+      <c r="F214" s="22">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B215" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="20">
-        <v>1</v>
-      </c>
-      <c r="F213" s="20">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="18" t="s">
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="20">
+        <v>1</v>
+      </c>
+      <c r="F215" s="20">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="629">
   <si>
     <t>old</t>
   </si>
@@ -1905,6 +1905,12 @@
   </si>
   <si>
     <t>t_screening_start</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2503,62 +2509,62 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>616</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>619</v>
+      <c r="A9" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2573,18 +2579,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>618</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2602,249 +2608,249 @@
         <v>1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>339</v>
+        <v>494</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>496</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2862,15 +2868,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>177</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>492</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2885,24 +2891,24 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>492</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2911,18 +2917,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2940,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2963,18 +2969,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2989,24 +2995,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>596</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3015,76 +3021,76 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
+        <v>596</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C29" s="20">
         <v>1</v>
       </c>
       <c r="D29" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="21">
         <v>1</v>
@@ -3096,67 +3102,67 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3174,93 +3180,93 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3275,18 +3281,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3304,15 +3310,15 @@
         <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3327,96 +3333,96 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3434,15 +3440,15 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
+      <c r="A43" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3459,16 +3465,16 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>197</v>
+      <c r="H43" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3486,15 +3492,15 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3509,18 +3515,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3535,18 +3541,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3564,24 +3570,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -3590,15 +3596,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -3616,24 +3622,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
+      <c r="A50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -3641,224 +3647,224 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>204</v>
+      <c r="H50" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3876,15 +3882,15 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>489</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>497</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3902,15 +3908,15 @@
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>490</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3928,15 +3934,15 @@
         <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3954,15 +3960,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>211</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>375</v>
+        <v>498</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3980,15 +3986,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4006,205 +4012,205 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="20">
-        <v>0</v>
-      </c>
-      <c r="D71" s="20">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="20">
-        <v>0</v>
-      </c>
-      <c r="D72" s="20">
-        <v>0</v>
-      </c>
-      <c r="E72" s="20">
+        <v>51</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
         <v>1</v>
       </c>
       <c r="F72" s="3">
@@ -4214,15 +4220,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="20">
         <v>0</v>
@@ -4240,15 +4246,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="20">
         <v>0</v>
@@ -4256,7 +4262,7 @@
       <c r="D74" s="20">
         <v>0</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>1</v>
       </c>
       <c r="F74" s="3">
@@ -4266,23 +4272,23 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
+        <v>54</v>
+      </c>
+      <c r="C75" s="20">
+        <v>0</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
         <v>1</v>
       </c>
       <c r="F75" s="3">
@@ -4292,23 +4298,23 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
+        <v>55</v>
+      </c>
+      <c r="C76" s="20">
+        <v>0</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
         <v>1</v>
       </c>
       <c r="F76" s="3">
@@ -4318,15 +4324,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4344,15 +4350,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4370,15 +4376,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4396,15 +4402,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4422,15 +4428,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4448,15 +4454,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4474,15 +4480,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4500,15 +4506,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4526,15 +4532,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4552,15 +4558,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4578,15 +4584,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4604,15 +4610,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4630,15 +4636,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4656,23 +4662,23 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="20">
+        <v>69</v>
+      </c>
+      <c r="C90" s="2">
         <v>0</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="4">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4682,23 +4688,23 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="20">
+        <v>70</v>
+      </c>
+      <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="4">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -4708,15 +4714,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="20">
         <v>0</v>
@@ -4734,15 +4740,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" s="20">
         <v>0</v>
@@ -4750,7 +4756,7 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="20">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4760,15 +4766,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" s="20">
         <v>0</v>
@@ -4776,7 +4782,7 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="21">
         <v>1</v>
       </c>
       <c r="F94" s="3">
@@ -4786,15 +4792,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" s="20">
         <v>0</v>
@@ -4802,7 +4808,7 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="21">
         <v>1</v>
       </c>
       <c r="F95" s="3">
@@ -4812,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" s="20">
         <v>0</v>
@@ -4828,7 +4834,7 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="20">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -4838,17 +4844,17 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="2">
+        <v>76</v>
+      </c>
+      <c r="C97" s="20">
         <v>0</v>
       </c>
       <c r="D97" s="2">
@@ -4864,93 +4870,93 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="20">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B100" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="13" t="s">
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4965,18 +4971,18 @@
         <v>1</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4994,15 +5000,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5020,15 +5026,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5046,15 +5052,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5072,15 +5078,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5098,15 +5104,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5124,15 +5130,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5150,15 +5156,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5176,15 +5182,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5202,15 +5208,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5228,15 +5234,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5254,15 +5260,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5280,15 +5286,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5306,15 +5312,15 @@
         <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5332,15 +5338,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5355,18 +5361,18 @@
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>98</v>
+        <v>424</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5381,18 +5387,18 @@
         <v>1</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5410,15 +5416,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5436,15 +5442,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5462,15 +5468,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5488,15 +5494,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5514,15 +5520,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5540,15 +5546,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5556,25 +5562,25 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="20">
-        <v>1</v>
-      </c>
-      <c r="F124" s="22">
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5582,25 +5588,25 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="20">
-        <v>1</v>
-      </c>
-      <c r="F125" s="22">
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
         <v>1</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5618,15 +5624,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5637,22 +5643,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="22">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5670,15 +5676,15 @@
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5689,22 +5695,22 @@
       <c r="E129" s="20">
         <v>1</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="20">
         <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5722,15 +5728,15 @@
         <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5741,22 +5747,22 @@
       <c r="E131" s="20">
         <v>1</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="22">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>613</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5767,22 +5773,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="22">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>614</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>113</v>
+        <v>440</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5793,22 +5799,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="20">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>114</v>
+        <v>612</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>613</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5819,22 +5825,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="20">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>114</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5849,18 +5855,18 @@
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5878,15 +5884,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5904,15 +5910,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5923,22 +5929,22 @@
       <c r="E138" s="20">
         <v>1</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="22">
         <v>1</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5956,15 +5962,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5975,100 +5981,100 @@
       <c r="E140" s="20">
         <v>1</v>
       </c>
-      <c r="F140" s="22">
+      <c r="F140" s="20">
         <v>1</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="22">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="20">
+        <v>1</v>
+      </c>
+      <c r="F142" s="22">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B143" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="22">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="17" t="s">
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1</v>
+      </c>
+      <c r="F143" s="22">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="17" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1</v>
-      </c>
-      <c r="F142" s="20">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1</v>
-      </c>
-      <c r="F143" s="20">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6086,15 +6092,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6112,15 +6118,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6138,93 +6144,93 @@
         <v>0</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B149" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
-        <v>1</v>
-      </c>
-      <c r="F147" s="20">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="18" t="s">
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="18" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>1</v>
-      </c>
-      <c r="F148" s="22">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="4">
-        <v>1</v>
-      </c>
-      <c r="F149" s="22">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>533</v>
+        <v>450</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6232,7 +6238,7 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="20">
         <v>1</v>
       </c>
       <c r="F150" s="22">
@@ -6242,15 +6248,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>515</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6268,15 +6274,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6294,15 +6300,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6320,15 +6326,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6346,15 +6352,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6372,15 +6378,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6398,15 +6404,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6424,15 +6430,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6450,15 +6456,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6476,15 +6482,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6502,15 +6508,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6528,15 +6534,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6554,15 +6560,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6580,15 +6586,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6606,15 +6612,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6632,15 +6638,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6658,15 +6664,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>123</v>
+        <v>572</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6674,7 +6680,7 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E167" s="4">
         <v>1</v>
       </c>
       <c r="F167" s="22">
@@ -6684,15 +6690,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>288</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>124</v>
+        <v>573</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6700,7 +6706,7 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="4">
         <v>1</v>
       </c>
       <c r="F168" s="22">
@@ -6710,15 +6716,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>289</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6733,18 +6739,18 @@
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6759,18 +6765,18 @@
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>591</v>
+        <v>125</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6788,15 +6794,15 @@
         <v>1</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>592</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>593</v>
+        <v>453</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>594</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6814,15 +6820,15 @@
         <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>595</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>127</v>
+        <v>590</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>591</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6837,18 +6843,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>292</v>
+        <v>592</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>128</v>
+        <v>593</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6863,18 +6869,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>293</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>129</v>
+        <v>454</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6892,15 +6898,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6911,22 +6917,22 @@
       <c r="E176" s="20">
         <v>1</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="22">
         <v>1</v>
       </c>
       <c r="G176" s="3">
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6944,15 +6950,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6963,22 +6969,22 @@
       <c r="E178" s="20">
         <v>1</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="20">
         <v>1</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6993,18 +6999,18 @@
         <v>1</v>
       </c>
       <c r="G179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7019,18 +7025,18 @@
         <v>1</v>
       </c>
       <c r="G180" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7045,18 +7051,18 @@
         <v>1</v>
       </c>
       <c r="G181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7071,18 +7077,18 @@
         <v>1</v>
       </c>
       <c r="G182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7100,15 +7106,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7126,15 +7132,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7152,15 +7158,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7178,15 +7184,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7204,15 +7210,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7230,15 +7236,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7256,15 +7262,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7282,15 +7288,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7308,15 +7314,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7334,15 +7340,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7360,15 +7366,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7386,15 +7392,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7412,15 +7418,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7438,15 +7444,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7464,15 +7470,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7483,22 +7489,22 @@
       <c r="E198" s="20">
         <v>1</v>
       </c>
-      <c r="F198" s="20">
+      <c r="F198" s="22">
         <v>1</v>
       </c>
       <c r="G198" s="3">
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7516,15 +7522,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7535,22 +7541,22 @@
       <c r="E200" s="20">
         <v>1</v>
       </c>
-      <c r="F200" s="22">
+      <c r="F200" s="20">
         <v>1</v>
       </c>
       <c r="G200" s="3">
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7568,15 +7574,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7594,15 +7600,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7620,15 +7626,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7646,15 +7652,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7672,15 +7678,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7698,93 +7704,93 @@
         <v>0</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B209" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="17" t="s">
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="17" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="22">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="22">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7802,15 +7808,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7828,15 +7834,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7854,15 +7860,15 @@
         <v>0</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7880,15 +7886,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7906,32 +7912,84 @@
         <v>0</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="20">
+        <v>1</v>
+      </c>
+      <c r="F215" s="22">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="20">
+        <v>1</v>
+      </c>
+      <c r="F216" s="22">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B217" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0</v>
-      </c>
-      <c r="E215" s="20">
-        <v>1</v>
-      </c>
-      <c r="F215" s="20">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3">
-        <v>0</v>
-      </c>
-      <c r="H215" s="18" t="s">
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="20">
+        <v>1</v>
+      </c>
+      <c r="F217" s="20">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="634">
   <si>
     <t>old</t>
   </si>
@@ -1917,6 +1917,15 @@
   </si>
   <si>
     <t>submission_date</t>
+  </si>
+  <si>
+    <t>meta-instanceID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>instanceID</t>
   </si>
 </sst>
 </file>
@@ -2340,24 +2349,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>485</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>629</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>589</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>627</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>615</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>628</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>616</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>618</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>620</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>622</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>624</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>334</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>335</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>486</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>336</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>337</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>494</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>338</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>339</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>493</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>340</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>342</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>343</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>344</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>341</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>345</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>346</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>347</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>348</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>349</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>350</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>351</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>352</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>353</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>354</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>355</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>507</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>511</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>356</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>357</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>358</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>359</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>360</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>361</v>
       </c>
@@ -3605,7 +3614,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>362</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>363</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>364</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>365</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>366</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>367</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>368</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>369</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>370</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>371</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>597</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>372</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>373</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>487</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>488</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>498</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>374</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>375</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>376</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>377</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>503</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>505</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>586</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>587</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>378</v>
       </c>
@@ -4255,7 +4264,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>379</v>
       </c>
@@ -4281,7 +4290,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>380</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>381</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>382</v>
       </c>
@@ -4359,7 +4368,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>383</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>384</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>385</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>386</v>
       </c>
@@ -4463,7 +4472,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>387</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>388</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>389</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>390</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>391</v>
       </c>
@@ -4593,7 +4602,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>392</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>393</v>
       </c>
@@ -4645,7 +4654,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>394</v>
       </c>
@@ -4671,7 +4680,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>395</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>396</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>397</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>398</v>
       </c>
@@ -4775,7 +4784,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>399</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>400</v>
       </c>
@@ -4827,7 +4836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>401</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>402</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>403</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>404</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>405</v>
       </c>
@@ -4957,7 +4966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>406</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>407</v>
       </c>
@@ -5009,7 +5018,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>408</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>409</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>410</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>411</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>412</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>413</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
         <v>414</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
         <v>415</v>
       </c>
@@ -5217,7 +5226,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>417</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>418</v>
       </c>
@@ -5269,7 +5278,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>419</v>
       </c>
@@ -5295,7 +5304,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>420</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
         <v>421</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
         <v>422</v>
       </c>
@@ -5373,7 +5382,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>423</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>424</v>
       </c>
@@ -5425,7 +5434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>425</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>426</v>
       </c>
@@ -5477,7 +5486,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>427</v>
       </c>
@@ -5503,7 +5512,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>428</v>
       </c>
@@ -5529,7 +5538,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>429</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>430</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
         <v>431</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>432</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>433</v>
       </c>
@@ -5659,7 +5668,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>434</v>
       </c>
@@ -5685,7 +5694,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
         <v>435</v>
       </c>
@@ -5711,7 +5720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>436</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>437</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>438</v>
       </c>
@@ -5789,7 +5798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>439</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>440</v>
       </c>
@@ -5841,7 +5850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>612</v>
       </c>
@@ -5867,7 +5876,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>441</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>442</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>443</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
         <v>444</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>445</v>
       </c>
@@ -5997,7 +6006,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>446</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>447</v>
       </c>
@@ -6049,7 +6058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>448</v>
       </c>
@@ -6075,7 +6084,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>449</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
         <v>574</v>
       </c>
@@ -6127,7 +6136,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
         <v>575</v>
       </c>
@@ -6153,7 +6162,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
         <v>576</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>577</v>
       </c>
@@ -6205,7 +6214,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
         <v>578</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
         <v>579</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
         <v>450</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>556</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>557</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
         <v>558</v>
       </c>
@@ -6361,7 +6370,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
         <v>559</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
         <v>560</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
         <v>561</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
         <v>562</v>
       </c>
@@ -6465,7 +6474,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>563</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>564</v>
       </c>
@@ -6517,7 +6526,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>565</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>566</v>
       </c>
@@ -6569,7 +6578,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
         <v>567</v>
       </c>
@@ -6595,7 +6604,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
         <v>568</v>
       </c>
@@ -6621,7 +6630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
         <v>569</v>
       </c>
@@ -6647,7 +6656,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
         <v>570</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>571</v>
       </c>
@@ -6699,7 +6708,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>572</v>
       </c>
@@ -6725,7 +6734,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>573</v>
       </c>
@@ -6751,7 +6760,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>451</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>416</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
         <v>452</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>453</v>
       </c>
@@ -6855,7 +6864,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
         <v>590</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
         <v>593</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
         <v>454</v>
       </c>
@@ -6933,7 +6942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>455</v>
       </c>
@@ -6959,7 +6968,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>456</v>
       </c>
@@ -6985,7 +6994,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>457</v>
       </c>
@@ -7011,7 +7020,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
         <v>458</v>
       </c>
@@ -7037,7 +7046,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>459</v>
       </c>
@@ -7063,7 +7072,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>460</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>461</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
         <v>462</v>
       </c>
@@ -7141,7 +7150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>463</v>
       </c>
@@ -7167,7 +7176,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
         <v>464</v>
       </c>
@@ -7193,7 +7202,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
         <v>465</v>
       </c>
@@ -7219,7 +7228,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>600</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
         <v>601</v>
       </c>
@@ -7271,7 +7280,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>602</v>
       </c>
@@ -7297,7 +7306,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>603</v>
       </c>
@@ -7323,7 +7332,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>604</v>
       </c>
@@ -7349,7 +7358,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>605</v>
       </c>
@@ -7375,7 +7384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
         <v>606</v>
       </c>
@@ -7401,7 +7410,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
         <v>607</v>
       </c>
@@ -7427,7 +7436,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
         <v>608</v>
       </c>
@@ -7453,7 +7462,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
         <v>609</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
         <v>610</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
         <v>611</v>
       </c>
@@ -7531,7 +7540,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
         <v>466</v>
       </c>
@@ -7557,7 +7566,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
         <v>467</v>
       </c>
@@ -7583,7 +7592,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>468</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
         <v>469</v>
       </c>
@@ -7635,7 +7644,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
         <v>470</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
         <v>471</v>
       </c>
@@ -7687,7 +7696,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
         <v>472</v>
       </c>
@@ -7713,7 +7722,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
         <v>473</v>
       </c>
@@ -7739,7 +7748,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
         <v>474</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>475</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>476</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="18" t="s">
         <v>477</v>
       </c>
@@ -7843,7 +7852,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
         <v>478</v>
       </c>
@@ -7869,7 +7878,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
         <v>479</v>
       </c>
@@ -7895,7 +7904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
         <v>480</v>
       </c>
@@ -7921,7 +7930,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
         <v>481</v>
       </c>
@@ -7947,7 +7956,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
         <v>482</v>
       </c>
@@ -7973,7 +7982,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
         <v>483</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
         <v>484</v>
       </c>
@@ -8023,6 +8032,32 @@
       </c>
       <c r="H218" s="18" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1</v>
+      </c>
+      <c r="E219" s="4">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="643">
   <si>
     <t>old</t>
   </si>
@@ -1271,9 +1271,6 @@
     <t>crfs-t05a-ttt05a-c1_a_2</t>
   </si>
   <si>
-    <t>crfs-t09a2_g3_1o</t>
-  </si>
-  <si>
     <t>crfs-t05a-ttt05a-c1_a_3</t>
   </si>
   <si>
@@ -1935,6 +1932,27 @@
   </si>
   <si>
     <t>referral_type_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-g3_1o</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4</t>
+  </si>
+  <si>
+    <t>child_id_scan</t>
+  </si>
+  <si>
+    <t>a1_a_4</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4a</t>
+  </si>
+  <si>
+    <t>a1_a_4a</t>
+  </si>
+  <si>
+    <t>child_id_manual</t>
   </si>
 </sst>
 </file>
@@ -2355,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2392,7 +2410,7 @@
         <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>192</v>
@@ -2478,7 +2496,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>171</v>
@@ -2499,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>629</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2525,15 +2543,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2551,15 +2569,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2577,15 +2595,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2603,15 +2621,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2629,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>616</v>
-      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -2655,16 +2673,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>618</v>
-      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -2681,16 +2699,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>620</v>
-      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -2707,16 +2725,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>622</v>
-      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -2733,33 +2751,33 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>623</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2816,10 +2834,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2837,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2894,28 +2912,28 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2972,10 +2990,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2993,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3105,7 +3123,7 @@
         <v>340</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3414,37 +3432,37 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>511</v>
-      </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3751,219 +3769,219 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>490</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3981,15 +3999,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>488</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>496</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4007,15 +4025,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>489</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4033,15 +4051,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>373</v>
+        <v>486</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>40</v>
+        <v>495</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4059,15 +4077,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>210</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4085,15 +4103,15 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>213</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -4111,205 +4129,205 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="17">
-        <v>0</v>
-      </c>
-      <c r="D74" s="17">
-        <v>0</v>
-      </c>
-      <c r="E74" s="18">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
         <v>0</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>217</v>
+      <c r="H74" s="11" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="17">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="17">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
         <v>1</v>
       </c>
       <c r="F75" s="3">
@@ -4319,15 +4337,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="17">
         <v>0</v>
@@ -4345,15 +4363,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" s="17">
         <v>0</v>
@@ -4361,7 +4379,7 @@
       <c r="D77" s="17">
         <v>0</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="17">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4371,23 +4389,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+        <v>54</v>
+      </c>
+      <c r="C78" s="17">
+        <v>0</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="18">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4397,23 +4415,23 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
+        <v>55</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="18">
         <v>1</v>
       </c>
       <c r="F79" s="3">
@@ -4423,15 +4441,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4449,15 +4467,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4475,15 +4493,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4501,15 +4519,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4527,15 +4545,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4553,15 +4571,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4579,15 +4597,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4605,15 +4623,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4631,15 +4649,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4657,15 +4675,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4683,15 +4701,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4709,15 +4727,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4735,15 +4753,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4761,23 +4779,23 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="17">
+        <v>69</v>
+      </c>
+      <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="4">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4787,23 +4805,23 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="17">
+        <v>70</v>
+      </c>
+      <c r="C94" s="2">
         <v>0</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="4">
         <v>1</v>
       </c>
       <c r="F94" s="3">
@@ -4813,15 +4831,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
@@ -4839,15 +4857,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
@@ -4855,7 +4873,7 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="17">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -4865,15 +4883,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" s="17">
         <v>0</v>
@@ -4881,7 +4899,7 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="18">
         <v>1</v>
       </c>
       <c r="F97" s="3">
@@ -4891,15 +4909,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="17">
         <v>0</v>
@@ -4907,7 +4925,7 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="18">
         <v>1</v>
       </c>
       <c r="F98" s="3">
@@ -4917,15 +4935,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" s="17">
         <v>0</v>
@@ -4933,7 +4951,7 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="17">
         <v>1</v>
       </c>
       <c r="F99" s="3">
@@ -4943,17 +4961,17 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="2">
+        <v>76</v>
+      </c>
+      <c r="C100" s="17">
         <v>0</v>
       </c>
       <c r="D100" s="2">
@@ -4969,93 +4987,93 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="13" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5070,18 +5088,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5099,15 +5117,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5125,15 +5143,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5151,15 +5169,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5177,15 +5195,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5203,15 +5221,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5229,15 +5247,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5255,15 +5273,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5281,15 +5299,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5307,15 +5325,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5333,15 +5351,15 @@
         <v>0</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5359,15 +5377,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5385,15 +5403,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5411,15 +5429,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5437,15 +5455,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5460,18 +5478,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>98</v>
+        <v>422</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5486,18 +5504,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>99</v>
+        <v>423</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5515,15 +5533,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5541,15 +5559,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5567,15 +5585,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5593,15 +5611,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5619,15 +5637,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5645,15 +5663,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5661,25 +5679,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="17">
-        <v>1</v>
-      </c>
-      <c r="F127" s="19">
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5687,25 +5705,25 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="17">
-        <v>1</v>
-      </c>
-      <c r="F128" s="19">
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5723,15 +5741,15 @@
         <v>1</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5742,22 +5760,22 @@
       <c r="E130" s="17">
         <v>1</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="19">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5775,15 +5793,15 @@
         <v>1</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5794,22 +5812,22 @@
       <c r="E132" s="17">
         <v>1</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="17">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5827,15 +5845,15 @@
         <v>1</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5846,22 +5864,22 @@
       <c r="E134" s="17">
         <v>1</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="19">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>611</v>
+        <v>437</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>612</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5872,22 +5890,22 @@
       <c r="E135" s="17">
         <v>1</v>
       </c>
-      <c r="F135" s="17">
+      <c r="F135" s="19">
         <v>1</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>613</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>113</v>
+        <v>438</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5898,22 +5916,22 @@
       <c r="E136" s="17">
         <v>1</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="17">
         <v>1</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>114</v>
+        <v>610</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>611</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5924,22 +5942,22 @@
       <c r="E137" s="17">
         <v>1</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="17">
         <v>1</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>114</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5954,18 +5972,18 @@
         <v>1</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5983,15 +6001,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6009,15 +6027,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6028,22 +6046,22 @@
       <c r="E141" s="17">
         <v>1</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="19">
         <v>1</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6061,15 +6079,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6080,100 +6098,100 @@
       <c r="E143" s="17">
         <v>1</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="17">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="17">
+        <v>1</v>
+      </c>
+      <c r="F144" s="19">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="17">
+        <v>1</v>
+      </c>
+      <c r="F145" s="19">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="17">
-        <v>1</v>
-      </c>
-      <c r="F144" s="19">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="14" t="s">
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
+        <v>1</v>
+      </c>
+      <c r="F146" s="19">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="14" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="17">
-        <v>1</v>
-      </c>
-      <c r="F145" s="17">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="17">
-        <v>1</v>
-      </c>
-      <c r="F146" s="17">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6191,15 +6209,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6217,15 +6235,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6243,15 +6261,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6269,15 +6287,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>122</v>
+      <c r="A151" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>582</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6288,22 +6306,22 @@
       <c r="E151" s="17">
         <v>1</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="17">
         <v>1</v>
       </c>
       <c r="G151" s="3">
         <v>0</v>
       </c>
-      <c r="H151" s="14" t="s">
-        <v>286</v>
+      <c r="H151" s="15" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>531</v>
+      <c r="A152" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>583</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6311,25 +6329,25 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="4">
-        <v>1</v>
-      </c>
-      <c r="F152" s="19">
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="17">
         <v>1</v>
       </c>
       <c r="G152" s="3">
         <v>0</v>
       </c>
-      <c r="H152" s="14" t="s">
-        <v>513</v>
+      <c r="H152" s="15" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>556</v>
+        <v>448</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>532</v>
+        <v>122</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6337,7 +6355,7 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="17">
         <v>1</v>
       </c>
       <c r="F153" s="19">
@@ -6347,15 +6365,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>514</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6373,15 +6391,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6399,15 +6417,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6425,15 +6443,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6451,15 +6469,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6477,15 +6495,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6503,15 +6521,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6529,15 +6547,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6555,15 +6573,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6581,15 +6599,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6607,15 +6625,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6633,15 +6651,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6659,15 +6677,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6685,15 +6703,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6711,15 +6729,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6737,15 +6755,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6763,15 +6781,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>123</v>
+        <v>547</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6779,7 +6797,7 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="17">
+      <c r="E170" s="4">
         <v>1</v>
       </c>
       <c r="F170" s="19">
@@ -6789,15 +6807,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>415</v>
+        <v>571</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6805,7 +6823,7 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="17">
+      <c r="E171" s="4">
         <v>1</v>
       </c>
       <c r="F171" s="19">
@@ -6815,15 +6833,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>288</v>
+        <v>529</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6838,18 +6856,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>452</v>
+        <v>636</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>635</v>
+        <v>124</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6864,18 +6882,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>633</v>
+        <v>450</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>636</v>
+        <v>125</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6893,15 +6911,15 @@
         <v>1</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>634</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>589</v>
+        <v>451</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6919,15 +6937,15 @@
         <v>1</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>591</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6945,15 +6963,15 @@
         <v>1</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>126</v>
+        <v>588</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6968,18 +6986,18 @@
         <v>1</v>
       </c>
       <c r="G177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>291</v>
+        <v>590</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>127</v>
+        <v>591</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>592</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6994,18 +7012,18 @@
         <v>1</v>
       </c>
       <c r="G178" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>128</v>
+        <v>452</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7023,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>129</v>
+        <v>453</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7042,22 +7060,22 @@
       <c r="E180" s="17">
         <v>1</v>
       </c>
-      <c r="F180" s="17">
+      <c r="F180" s="19">
         <v>1</v>
       </c>
       <c r="G180" s="3">
         <v>0</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7075,15 +7093,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7094,22 +7112,22 @@
       <c r="E182" s="17">
         <v>1</v>
       </c>
-      <c r="F182" s="19">
+      <c r="F182" s="17">
         <v>1</v>
       </c>
       <c r="G182" s="3">
         <v>0</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7124,18 +7142,18 @@
         <v>1</v>
       </c>
       <c r="G183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7150,18 +7168,18 @@
         <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7176,18 +7194,18 @@
         <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7202,18 +7220,18 @@
         <v>1</v>
       </c>
       <c r="G186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7231,15 +7249,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7257,15 +7275,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>599</v>
+        <v>462</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7283,15 +7301,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>600</v>
+        <v>463</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7309,15 +7327,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7335,15 +7353,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7361,15 +7379,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7387,15 +7405,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7413,15 +7431,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7439,15 +7457,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7465,15 +7483,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7491,15 +7509,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7517,15 +7535,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7543,15 +7561,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7569,15 +7587,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>465</v>
+        <v>608</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7595,15 +7613,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>466</v>
+        <v>609</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7614,22 +7632,22 @@
       <c r="E202" s="17">
         <v>1</v>
       </c>
-      <c r="F202" s="17">
+      <c r="F202" s="19">
         <v>1</v>
       </c>
       <c r="G202" s="3">
         <v>0</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7647,15 +7665,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7666,22 +7684,22 @@
       <c r="E204" s="17">
         <v>1</v>
       </c>
-      <c r="F204" s="19">
+      <c r="F204" s="17">
         <v>1</v>
       </c>
       <c r="G204" s="3">
         <v>0</v>
       </c>
       <c r="H204" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7699,15 +7717,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7725,15 +7743,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7751,15 +7769,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7777,15 +7795,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7803,15 +7821,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7829,93 +7847,93 @@
         <v>0</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B211" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="17">
+        <v>1</v>
+      </c>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="17">
+        <v>1</v>
+      </c>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="17">
-        <v>1</v>
-      </c>
-      <c r="F211" s="19">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="14" t="s">
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="17">
+        <v>1</v>
+      </c>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="14" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="17">
-        <v>1</v>
-      </c>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="17">
-        <v>1</v>
-      </c>
-      <c r="F213" s="19">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7933,15 +7951,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -7959,15 +7977,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -7985,15 +8003,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8011,15 +8029,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8037,59 +8055,111 @@
         <v>0</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B219" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="17">
+        <v>1</v>
+      </c>
+      <c r="F219" s="19">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="17">
+        <v>1</v>
+      </c>
+      <c r="F220" s="19">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B221" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="17">
-        <v>1</v>
-      </c>
-      <c r="F219" s="17">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="15" t="s">
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="17">
+        <v>1</v>
+      </c>
+      <c r="F221" s="17">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1</v>
-      </c>
-      <c r="D220" s="2">
-        <v>1</v>
-      </c>
-      <c r="E220" s="4">
-        <v>1</v>
-      </c>
-      <c r="F220" s="3">
-        <v>1</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="5" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -1808,9 +1808,6 @@
     <t>i2_1o</t>
   </si>
   <si>
-    <t>yg_infant_ctg</t>
-  </si>
-  <si>
     <t>crfs-t02b-a4_a_10a</t>
   </si>
   <si>
@@ -1953,6 +1950,9 @@
   </si>
   <si>
     <t>child_id_manual</t>
+  </si>
+  <si>
+    <t>who_age_ctg</t>
   </si>
 </sst>
 </file>
@@ -2376,21 +2376,21 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>483</v>
       </c>
@@ -2520,13 +2520,13 @@
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>587</v>
       </c>
@@ -2572,12 +2572,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2598,189 +2598,189 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="B11" s="20" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>333</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>334</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>484</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>335</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>492</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>337</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>338</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>491</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>339</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>341</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>342</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>343</v>
       </c>
@@ -3118,12 +3118,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>344</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>345</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>346</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>347</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>348</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>349</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>350</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>351</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>352</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>353</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>354</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>505</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>509</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>355</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>356</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>357</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>358</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>359</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>360</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>361</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>362</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>363</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>364</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>365</v>
       </c>
@@ -3768,59 +3768,59 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>366</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>367</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>368</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>369</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>370</v>
       </c>
@@ -3950,33 +3950,33 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>371</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>372</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>485</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>486</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>496</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>373</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>374</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>375</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>376</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>501</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>503</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>584</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>585</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>377</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>378</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>379</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>380</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>381</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>382</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>383</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>384</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>385</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>386</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>387</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>388</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>389</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>390</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>391</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>392</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>393</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>394</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>395</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>396</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>397</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>398</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>399</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>400</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>401</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>402</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>403</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>404</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>405</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>406</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>407</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>408</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>409</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>410</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>411</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>412</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>413</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>414</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>415</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>416</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>417</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>418</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>419</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>420</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>421</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>422</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>423</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>424</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>425</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>426</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>427</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>428</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>429</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>430</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>431</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>432</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>433</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>434</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>435</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>436</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>437</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>438</v>
       </c>
@@ -5926,33 +5926,33 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="17">
-        <v>1</v>
-      </c>
-      <c r="F137" s="17">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>1</v>
-      </c>
-      <c r="H137" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>439</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>440</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>441</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>442</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>443</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>444</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>445</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>446</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>447</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>572</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>573</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>574</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>575</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>576</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>577</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>448</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>554</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>555</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>556</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>557</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>558</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>559</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>560</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>561</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>562</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>563</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>564</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>565</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>566</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>567</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>568</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>569</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>570</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>571</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>449</v>
       </c>
@@ -6862,9 +6862,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>124</v>
@@ -6888,7 +6888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>450</v>
       </c>
@@ -6914,12 +6914,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>451</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6940,33 +6940,33 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>1</v>
+      </c>
+      <c r="F176" s="19">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="17">
-        <v>1</v>
-      </c>
-      <c r="F176" s="19">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>588</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>591</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>452</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>453</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>454</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>455</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>456</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>457</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>458</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>459</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>460</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>461</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>462</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>463</v>
       </c>
@@ -7330,9 +7330,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>138</v>
@@ -7356,9 +7356,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>139</v>
@@ -7382,9 +7382,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>140</v>
@@ -7408,9 +7408,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>141</v>
@@ -7434,9 +7434,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>142</v>
@@ -7460,9 +7460,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>143</v>
@@ -7486,9 +7486,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>144</v>
@@ -7512,9 +7512,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>145</v>
@@ -7538,9 +7538,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>146</v>
@@ -7564,9 +7564,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>147</v>
@@ -7590,9 +7590,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>148</v>
@@ -7616,9 +7616,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>149</v>
@@ -7642,7 +7642,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
         <v>464</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
         <v>465</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>466</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>467</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>468</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>469</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>470</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>471</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
         <v>472</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>473</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>474</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>475</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>476</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>477</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>478</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>479</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>480</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>481</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>482</v>
       </c>
@@ -8136,30 +8136,30 @@
         <v>211</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2">
-        <v>1</v>
-      </c>
-      <c r="E222" s="4">
-        <v>1</v>
-      </c>
-      <c r="F222" s="3">
-        <v>1</v>
-      </c>
-      <c r="G222" s="3">
-        <v>0</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="645">
   <si>
     <t>old</t>
   </si>
@@ -1953,6 +1953,12 @@
   </si>
   <si>
     <t>who_age_ctg</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8162,6 +8168,32 @@
         <v>630</v>
       </c>
     </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1</v>
+      </c>
+      <c r="F223" s="2">
+        <v>1</v>
+      </c>
+      <c r="G223" s="2">
+        <v>1</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>

--- a/inst/extdata/main_dict_kenya.xlsx
+++ b/inst/extdata/main_dict_kenya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="654">
   <si>
     <t>old</t>
   </si>
@@ -1959,6 +1959,33 @@
   </si>
   <si>
     <t>form_version</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1a1o</t>
+  </si>
+  <si>
+    <t>referral_type_hf_oth</t>
+  </si>
+  <si>
+    <t>i2_1a1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-i2_1cga1</t>
+  </si>
+  <si>
+    <t>referral_type_cg</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-i2_1cga1o</t>
+  </si>
+  <si>
+    <t>referral_type_cg_oth</t>
+  </si>
+  <si>
+    <t>i2_1cga1</t>
+  </si>
+  <si>
+    <t>i2_1cga1o</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,6 +2124,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2379,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="J217" sqref="J217"/>
+    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5959,10 +5989,10 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C138" s="2">
@@ -5980,94 +6010,94 @@
       <c r="G138" s="3">
         <v>1</v>
       </c>
-      <c r="H138" s="14" t="s">
+      <c r="H138" s="22" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="17">
+        <v>1</v>
+      </c>
+      <c r="F139" s="19">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="17">
+        <v>1</v>
+      </c>
+      <c r="F140" s="19">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B141" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="17">
-        <v>1</v>
-      </c>
-      <c r="F139" s="19">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="14" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="17">
+        <v>1</v>
+      </c>
+      <c r="F141" s="19">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="22" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="17">
-        <v>1</v>
-      </c>
-      <c r="F140" s="19">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="17">
-        <v>1</v>
-      </c>
-      <c r="F141" s="19">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6085,15 +6115,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6104,22 +6134,22 @@
       <c r="E143" s="17">
         <v>1</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="19">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6137,15 +6167,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6156,100 +6186,100 @@
       <c r="E145" s="17">
         <v>1</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="17">
         <v>1</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
+        <v>1</v>
+      </c>
+      <c r="F146" s="19">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>1</v>
+      </c>
+      <c r="F147" s="19">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B148" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="17">
-        <v>1</v>
-      </c>
-      <c r="F146" s="19">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="14" t="s">
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
+        <v>1</v>
+      </c>
+      <c r="F148" s="19">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="14" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="17">
-        <v>1</v>
-      </c>
-      <c r="F147" s="17">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="17">
-        <v>1</v>
-      </c>
-      <c r="F148" s="17">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6267,15 +6297,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6293,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6319,93 +6349,93 @@
         <v>0</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>1</v>
+      </c>
+      <c r="F153" s="17">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="17">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="15" t="s">
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="17">
+        <v>1</v>
+      </c>
+      <c r="F154" s="17">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="15" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="17">
-        <v>1</v>
-      </c>
-      <c r="F153" s="19">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="4">
-        <v>1</v>
-      </c>
-      <c r="F154" s="19">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3">
-        <v>0</v>
-      </c>
-      <c r="H154" s="14" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>555</v>
+        <v>448</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>531</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6413,7 +6443,7 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="17">
         <v>1</v>
       </c>
       <c r="F155" s="19">
@@ -6423,15 +6453,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>513</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6449,15 +6479,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6475,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6501,15 +6531,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6527,15 +6557,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6553,15 +6583,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6579,15 +6609,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6605,15 +6635,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6631,15 +6661,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6657,15 +6687,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6683,15 +6713,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6709,15 +6739,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6735,15 +6765,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6761,15 +6791,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6787,15 +6817,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6813,15 +6843,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6839,15 +6869,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>449</v>
+        <v>570</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>123</v>
+        <v>547</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6855,7 +6885,7 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="E172" s="17">
+      <c r="E172" s="4">
         <v>1</v>
       </c>
       <c r="F172" s="19">
@@ -6865,15 +6895,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6881,7 +6911,7 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="E173" s="17">
+      <c r="E173" s="4">
         <v>1</v>
       </c>
       <c r="F173" s="19">
@@ -6891,15 +6921,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>288</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6914,122 +6944,122 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>1</v>
+      </c>
+      <c r="F175" s="19">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>1</v>
+      </c>
+      <c r="F176" s="19">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B177" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="17">
-        <v>1</v>
-      </c>
-      <c r="F175" s="19">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>1</v>
-      </c>
-      <c r="H175" s="14" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>1</v>
+      </c>
+      <c r="F177" s="19">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="14" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B178" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="17">
-        <v>1</v>
-      </c>
-      <c r="F176" s="19">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="14" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17">
+        <v>1</v>
+      </c>
+      <c r="F178" s="19">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="17">
-        <v>1</v>
-      </c>
-      <c r="F177" s="19">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>1</v>
-      </c>
-      <c r="H177" s="14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="17">
-        <v>1</v>
-      </c>
-      <c r="F178" s="19">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>1</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>126</v>
+      <c r="A179" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>646</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7044,18 +7074,18 @@
         <v>1</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="H179" s="22" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>127</v>
+        <v>588</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7070,18 +7100,18 @@
         <v>1</v>
       </c>
       <c r="G180" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>292</v>
+        <v>590</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>454</v>
+        <v>591</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>128</v>
+        <v>592</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7096,18 +7126,18 @@
         <v>1</v>
       </c>
       <c r="G181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>293</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>129</v>
+        <v>452</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7118,22 +7148,22 @@
       <c r="E182" s="17">
         <v>1</v>
       </c>
-      <c r="F182" s="17">
+      <c r="F182" s="19">
         <v>1</v>
       </c>
       <c r="G182" s="3">
         <v>0</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>130</v>
+        <v>453</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7151,15 +7181,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7177,15 +7207,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7196,22 +7226,22 @@
       <c r="E185" s="17">
         <v>1</v>
       </c>
-      <c r="F185" s="19">
+      <c r="F185" s="17">
         <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7226,18 +7256,18 @@
         <v>1</v>
       </c>
       <c r="G186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7255,15 +7285,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7278,18 +7308,18 @@
         <v>1</v>
       </c>
       <c r="G188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7304,18 +7334,18 @@
         <v>1</v>
       </c>
       <c r="G189" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7333,15 +7363,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>597</v>
+        <v>461</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7359,15 +7389,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7385,15 +7415,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>599</v>
+        <v>463</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7411,15 +7441,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7437,15 +7467,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7463,15 +7493,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7489,15 +7519,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7515,15 +7545,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7541,15 +7571,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7567,15 +7597,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7593,15 +7623,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7619,15 +7649,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7645,15 +7675,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>464</v>
+        <v>606</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7671,15 +7701,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>465</v>
+        <v>607</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7690,22 +7720,22 @@
       <c r="E204" s="17">
         <v>1</v>
       </c>
-      <c r="F204" s="17">
+      <c r="F204" s="19">
         <v>1</v>
       </c>
       <c r="G204" s="3">
         <v>0</v>
       </c>
       <c r="H204" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>466</v>
+        <v>608</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7723,15 +7753,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7749,15 +7779,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7768,22 +7798,22 @@
       <c r="E207" s="17">
         <v>1</v>
       </c>
-      <c r="F207" s="19">
+      <c r="F207" s="17">
         <v>1</v>
       </c>
       <c r="G207" s="3">
         <v>0</v>
       </c>
       <c r="H207" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7801,15 +7831,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7827,15 +7857,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7853,15 +7883,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7879,15 +7909,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7905,119 +7935,119 @@
         <v>0</v>
       </c>
       <c r="H212" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="17">
+        <v>1</v>
+      </c>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="17">
+        <v>1</v>
+      </c>
+      <c r="F214" s="19">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="17">
+        <v>1</v>
+      </c>
+      <c r="F215" s="19">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B216" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="17">
-        <v>1</v>
-      </c>
-      <c r="F213" s="19">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="14" t="s">
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="17">
+        <v>1</v>
+      </c>
+      <c r="F216" s="19">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="14" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C214" s="2">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2">
-        <v>0</v>
-      </c>
-      <c r="E214" s="17">
-        <v>1</v>
-      </c>
-      <c r="F214" s="19">
-        <v>1</v>
-      </c>
-      <c r="G214" s="3">
-        <v>0</v>
-      </c>
-      <c r="H214" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0</v>
-      </c>
-      <c r="E215" s="17">
-        <v>1</v>
-      </c>
-      <c r="F215" s="19">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3">
-        <v>0</v>
-      </c>
-      <c r="H215" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C216" s="2">
-        <v>0</v>
-      </c>
-      <c r="D216" s="2">
-        <v>0</v>
-      </c>
-      <c r="E216" s="17">
-        <v>1</v>
-      </c>
-      <c r="F216" s="19">
-        <v>1</v>
-      </c>
-      <c r="G216" s="3">
-        <v>0</v>
-      </c>
-      <c r="H216" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8035,15 +8065,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8061,15 +8091,15 @@
         <v>0</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -8087,15 +8117,15 @@
         <v>0</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -8113,84 +8143,162 @@
         <v>0</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="17">
+        <v>1</v>
+      </c>
+      <c r="F221" s="19">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+      <c r="E222" s="17">
+        <v>1</v>
+      </c>
+      <c r="F222" s="19">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0</v>
+      </c>
+      <c r="E223" s="17">
+        <v>1</v>
+      </c>
+      <c r="F223" s="19">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B224" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C221" s="2">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2">
-        <v>0</v>
-      </c>
-      <c r="E221" s="17">
-        <v>1</v>
-      </c>
-      <c r="F221" s="17">
-        <v>1</v>
-      </c>
-      <c r="G221" s="3">
-        <v>0</v>
-      </c>
-      <c r="H221" s="15" t="s">
+      <c r="C224" s="2">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0</v>
+      </c>
+      <c r="E224" s="17">
+        <v>1</v>
+      </c>
+      <c r="F224" s="17">
+        <v>1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B225" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2">
-        <v>1</v>
-      </c>
-      <c r="E222" s="4">
-        <v>1</v>
-      </c>
-      <c r="F222" s="3">
-        <v>1</v>
-      </c>
-      <c r="G222" s="3">
-        <v>0</v>
-      </c>
-      <c r="H222" s="5" t="s">
+      <c r="C225" s="2">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B226" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="C223" s="2">
-        <v>1</v>
-      </c>
-      <c r="D223" s="2">
-        <v>1</v>
-      </c>
-      <c r="E223" s="2">
-        <v>1</v>
-      </c>
-      <c r="F223" s="2">
-        <v>1</v>
-      </c>
-      <c r="G223" s="2">
-        <v>1</v>
-      </c>
-      <c r="H223" s="5" t="s">
+      <c r="C226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <v>1</v>
+      </c>
+      <c r="G226" s="2">
+        <v>1</v>
+      </c>
+      <c r="H226" s="5" t="s">
         <v>643</v>
       </c>
     </row>
